--- a/dataset/hostipals.xlsx
+++ b/dataset/hostipals.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\firestore_import\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aphkw\exceltojson\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D8CD96-B481-4BE5-B34C-6209B12C1762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30996" yWindow="1596" windowWidth="21600" windowHeight="11388"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="삼성서울" sheetId="13" r:id="rId1"/>
@@ -32,20 +33,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="739">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2883,13 +2876,17 @@
   </si>
   <si>
     <t>dfd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2959,7 +2956,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3038,17 +3035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3081,7 +3067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3220,7 +3206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3232,9 +3218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3244,22 +3227,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3283,7 +3257,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3292,7 +3266,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3584,48 +3558,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="67" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
@@ -3635,7 +3609,7 @@
       <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="48" t="s">
@@ -3663,8 +3637,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -3687,8 +3661,8 @@
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="48" t="s">
@@ -3715,8 +3689,8 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -3741,8 +3715,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -3765,8 +3739,8 @@
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -3787,8 +3761,8 @@
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="48" t="s">
@@ -3811,8 +3785,8 @@
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -3833,8 +3807,8 @@
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="60" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="48" t="s">
@@ -3863,8 +3837,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="48" t="s">
@@ -3885,8 +3859,8 @@
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -3913,8 +3887,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="60" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -3937,8 +3911,8 @@
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="48" t="s">
@@ -3961,8 +3935,8 @@
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="48" t="s">
@@ -3981,8 +3955,8 @@
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="48" t="s">
@@ -4001,8 +3975,8 @@
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -4021,8 +3995,8 @@
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="60" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="48" t="s">
@@ -4041,8 +4015,8 @@
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -4061,8 +4035,8 @@
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="60" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="48" t="s">
@@ -4081,8 +4055,8 @@
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4101,8 +4075,8 @@
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="60" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -4121,8 +4095,8 @@
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4141,8 +4115,8 @@
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="48" t="s">
@@ -4161,8 +4135,8 @@
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="60" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -4181,8 +4155,8 @@
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="60" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4201,8 +4175,8 @@
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="60" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="48" t="s">
@@ -4221,8 +4195,8 @@
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -4241,8 +4215,8 @@
       <c r="K29" s="48"/>
       <c r="L29" s="48"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="60" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4261,8 +4235,8 @@
       <c r="K30" s="48"/>
       <c r="L30" s="48"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="60" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="48" t="s">
@@ -4281,8 +4255,8 @@
       <c r="K31" s="48"/>
       <c r="L31" s="48"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="48" t="s">
@@ -4301,8 +4275,8 @@
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="60" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="48" t="s">
@@ -4321,8 +4295,8 @@
       <c r="K33" s="48"/>
       <c r="L33" s="48"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="60" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4341,8 +4315,8 @@
       <c r="K34" s="48"/>
       <c r="L34" s="48"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="60" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="48" t="s">
@@ -4361,8 +4335,8 @@
       <c r="K35" s="48"/>
       <c r="L35" s="48"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="60" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="48" t="s">
@@ -4381,8 +4355,8 @@
       <c r="K36" s="48"/>
       <c r="L36" s="48"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="60" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4401,8 +4375,8 @@
       <c r="K37" s="48"/>
       <c r="L37" s="48"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="60" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="48" t="s">
@@ -4421,8 +4395,8 @@
       <c r="K38" s="48"/>
       <c r="L38" s="48"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="60" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="48" t="s">
@@ -4441,8 +4415,8 @@
       <c r="K39" s="48"/>
       <c r="L39" s="48"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="60" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="48" t="s">
@@ -4461,8 +4435,8 @@
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="60" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4481,8 +4455,8 @@
       <c r="K41" s="48"/>
       <c r="L41" s="48"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="60" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="48" t="s">
@@ -4501,8 +4475,8 @@
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="48" t="s">
@@ -4521,8 +4495,8 @@
       <c r="K43" s="48"/>
       <c r="L43" s="48"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="60" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="48" t="s">
@@ -4541,8 +4515,8 @@
       <c r="K44" s="48"/>
       <c r="L44" s="48"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="60" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="48" t="s">
@@ -4561,8 +4535,8 @@
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="60" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="48" t="s">
@@ -4581,8 +4555,8 @@
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="60" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="48" t="s">
@@ -4601,8 +4575,8 @@
       <c r="K47" s="48"/>
       <c r="L47" s="48"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="60" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="48" t="s">
@@ -4621,8 +4595,8 @@
       <c r="K48" s="48"/>
       <c r="L48" s="48"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="60" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="48" t="s">
@@ -4641,8 +4615,8 @@
       <c r="K49" s="48"/>
       <c r="L49" s="48"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="60" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="48" t="s">
@@ -4661,8 +4635,8 @@
       <c r="K50" s="48"/>
       <c r="L50" s="48"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="60" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="48" t="s">
@@ -4681,8 +4655,8 @@
       <c r="K51" s="48"/>
       <c r="L51" s="48"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="60" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="48" t="s">
@@ -4701,8 +4675,8 @@
       <c r="K52" s="48"/>
       <c r="L52" s="48"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="60" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="48" t="s">
@@ -4721,8 +4695,8 @@
       <c r="K53" s="48"/>
       <c r="L53" s="48"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="60" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="48" t="s">
@@ -4741,8 +4715,8 @@
       <c r="K54" s="48"/>
       <c r="L54" s="48"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="60" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -4761,8 +4735,8 @@
       <c r="K55" s="48"/>
       <c r="L55" s="48"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="60" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="48" t="s">
@@ -4781,8 +4755,8 @@
       <c r="K56" s="48"/>
       <c r="L56" s="48"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="60" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="48" t="s">
@@ -4801,8 +4775,8 @@
       <c r="K57" s="48"/>
       <c r="L57" s="48"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="60" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="48" t="s">
@@ -4821,8 +4795,8 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="60" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="48" t="s">
@@ -4841,8 +4815,8 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="60" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="48" t="s">
@@ -4861,8 +4835,8 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="60" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -4881,8 +4855,8 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="60" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -4901,8 +4875,8 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="60" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -4921,8 +4895,8 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="60" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -4941,8 +4915,8 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="60" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -4961,8 +4935,8 @@
       <c r="K65" s="48"/>
       <c r="L65" s="48"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="60" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -4981,8 +4955,8 @@
       <c r="K66" s="48"/>
       <c r="L66" s="48"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="61" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="48" t="s">
@@ -5003,8 +4977,8 @@
       <c r="K67" s="48"/>
       <c r="L67" s="48"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="61" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="48" t="s">
@@ -5025,8 +4999,8 @@
       <c r="K68" s="48"/>
       <c r="L68" s="48"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="61" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="48" t="s">
@@ -5045,8 +5019,8 @@
       <c r="K69" s="48"/>
       <c r="L69" s="48"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="61" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="48" t="s">
@@ -5065,8 +5039,8 @@
       <c r="K70" s="48"/>
       <c r="L70" s="48"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="61" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="48" t="s">
@@ -5085,8 +5059,8 @@
       <c r="K71" s="48"/>
       <c r="L71" s="48"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="61" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="48" t="s">
@@ -5107,8 +5081,8 @@
       <c r="K72" s="48"/>
       <c r="L72" s="48"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="61" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="48" t="s">
@@ -5127,8 +5101,8 @@
       <c r="K73" s="48"/>
       <c r="L73" s="48"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="61" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="48" t="s">
@@ -5147,8 +5121,8 @@
       <c r="K74" s="48"/>
       <c r="L74" s="48"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="61" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="48" t="s">
@@ -5169,8 +5143,8 @@
       <c r="K75" s="48"/>
       <c r="L75" s="48"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="61" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="48" t="s">
@@ -5189,8 +5163,8 @@
       <c r="K76" s="48"/>
       <c r="L76" s="48"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="61" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="48" t="s">
@@ -5209,8 +5183,8 @@
       <c r="K77" s="48"/>
       <c r="L77" s="48"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="61" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="48" t="s">
@@ -5229,8 +5203,8 @@
       <c r="K78" s="48"/>
       <c r="L78" s="48"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="61" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="48" t="s">
@@ -5249,8 +5223,8 @@
       <c r="K79" s="48"/>
       <c r="L79" s="48"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="61" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="48" t="s">
@@ -5269,8 +5243,8 @@
       <c r="K80" s="48"/>
       <c r="L80" s="48"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="61" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="48" t="s">
@@ -5289,8 +5263,8 @@
       <c r="K81" s="48"/>
       <c r="L81" s="48"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="61" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="48" t="s">
@@ -5309,8 +5283,8 @@
       <c r="K82" s="48"/>
       <c r="L82" s="48"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A83" s="61" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="48" t="s">
@@ -5329,8 +5303,8 @@
       <c r="K83" s="48"/>
       <c r="L83" s="48"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A84" s="61" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="48" t="s">
@@ -5349,8 +5323,8 @@
       <c r="K84" s="48"/>
       <c r="L84" s="48"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A85" s="61" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="48" t="s">
@@ -5369,8 +5343,8 @@
       <c r="K85" s="48"/>
       <c r="L85" s="48"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A86" s="61" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="57" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="48" t="s">
@@ -5395,8 +5369,8 @@
       <c r="K86" s="48"/>
       <c r="L86" s="48"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A87" s="60" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B87" s="48" t="s">
@@ -5415,8 +5389,8 @@
       <c r="K87" s="48"/>
       <c r="L87" s="48"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A88" s="60" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="48" t="s">
@@ -5435,8 +5409,8 @@
       <c r="K88" s="48"/>
       <c r="L88" s="48"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A89" s="60" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B89" s="48" t="s">
@@ -5455,8 +5429,8 @@
       <c r="K89" s="48"/>
       <c r="L89" s="48"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90" s="60" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B90" s="48" t="s">
@@ -5475,8 +5449,8 @@
       <c r="K90" s="48"/>
       <c r="L90" s="48"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A91" s="60" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B91" s="48" t="s">
@@ -5495,8 +5469,8 @@
       <c r="K91" s="48"/>
       <c r="L91" s="48"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A92" s="60" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B92" s="48" t="s">
@@ -5515,8 +5489,8 @@
       <c r="K92" s="48"/>
       <c r="L92" s="48"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A93" s="60" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B93" s="48" t="s">
@@ -5535,8 +5509,8 @@
       <c r="K93" s="48"/>
       <c r="L93" s="48"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A94" s="60" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B94" s="48" t="s">
@@ -5555,8 +5529,8 @@
       <c r="K94" s="48"/>
       <c r="L94" s="48"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A95" s="60" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B95" s="48" t="s">
@@ -5575,8 +5549,8 @@
       <c r="K95" s="48"/>
       <c r="L95" s="48"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A96" s="60" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B96" s="48" t="s">
@@ -5595,8 +5569,8 @@
       <c r="K96" s="48"/>
       <c r="L96" s="48"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A97" s="60" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B97" s="48" t="s">
@@ -5615,8 +5589,8 @@
       <c r="K97" s="48"/>
       <c r="L97" s="48"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A98" s="60" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B98" s="48" t="s">
@@ -5635,8 +5609,8 @@
       <c r="K98" s="48"/>
       <c r="L98" s="48"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A99" s="60" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B99" s="48" t="s">
@@ -5655,8 +5629,8 @@
       <c r="K99" s="48"/>
       <c r="L99" s="48"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A100" s="60" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B100" s="48" t="s">
@@ -5675,8 +5649,8 @@
       <c r="K100" s="48"/>
       <c r="L100" s="48"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A101" s="60" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B101" s="48" t="s">
@@ -5695,8 +5669,8 @@
       <c r="K101" s="48"/>
       <c r="L101" s="48"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A102" s="60" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B102" s="48" t="s">
@@ -5715,8 +5689,8 @@
       <c r="K102" s="48"/>
       <c r="L102" s="48"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A103" s="60" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B103" s="48" t="s">
@@ -5735,8 +5709,8 @@
       <c r="K103" s="48"/>
       <c r="L103" s="48"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A104" s="60" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B104" s="48" t="s">
@@ -5755,8 +5729,8 @@
       <c r="K104" s="48"/>
       <c r="L104" s="48"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A105" s="60" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B105" s="48" t="s">
@@ -5775,8 +5749,8 @@
       <c r="K105" s="48"/>
       <c r="L105" s="48"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A106" s="60" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B106" s="48" t="s">
@@ -5795,8 +5769,8 @@
       <c r="K106" s="48"/>
       <c r="L106" s="48"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A107" s="60" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B107" s="48" t="s">
@@ -5815,8 +5789,8 @@
       <c r="K107" s="48"/>
       <c r="L107" s="48"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A108" s="60" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B108" s="48" t="s">
@@ -5835,8 +5809,8 @@
       <c r="K108" s="48"/>
       <c r="L108" s="48"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A109" s="60" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B109" s="48" t="s">
@@ -5855,8 +5829,8 @@
       <c r="K109" s="48"/>
       <c r="L109" s="48"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A110" s="60" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B110" s="48" t="s">
@@ -5875,8 +5849,8 @@
       <c r="K110" s="48"/>
       <c r="L110" s="48"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A111" s="60" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B111" s="48" t="s">
@@ -5895,8 +5869,8 @@
       <c r="K111" s="48"/>
       <c r="L111" s="48"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A112" s="60" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B112" s="48" t="s">
@@ -5915,8 +5889,8 @@
       <c r="K112" s="48"/>
       <c r="L112" s="48"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A113" s="60" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B113" s="48" t="s">
@@ -5935,8 +5909,8 @@
       <c r="K113" s="48"/>
       <c r="L113" s="48"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A114" s="60" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="48" t="s">
@@ -5955,8 +5929,8 @@
       <c r="K114" s="48"/>
       <c r="L114" s="48"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A115" s="60" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B115" s="48" t="s">
@@ -5975,8 +5949,8 @@
       <c r="K115" s="48"/>
       <c r="L115" s="48"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A116" s="60" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B116" s="48" t="s">
@@ -5995,8 +5969,8 @@
       <c r="K116" s="48"/>
       <c r="L116" s="48"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A117" s="60" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B117" s="48" t="s">
@@ -6015,8 +5989,8 @@
       <c r="K117" s="48"/>
       <c r="L117" s="48"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A118" s="60" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B118" s="48" t="s">
@@ -6035,8 +6009,8 @@
       <c r="K118" s="48"/>
       <c r="L118" s="48"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A119" s="60" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B119" s="48" t="s">
@@ -6067,27 +6041,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="10"/>
     <col min="5" max="5" width="9" style="12"/>
-    <col min="6" max="17" width="7.19921875" customWidth="1"/>
+    <col min="6" max="16" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>173</v>
       </c>
@@ -6106,36 +6080,34 @@
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>454</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="67" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="67" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="63" t="s">
         <v>499</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="57"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
@@ -6185,7 +6157,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
@@ -6209,7 +6181,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
@@ -6233,7 +6205,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>2</v>
       </c>
@@ -6257,7 +6229,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>2</v>
       </c>
@@ -6281,7 +6253,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>6</v>
       </c>
@@ -6305,7 +6277,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>6</v>
       </c>
@@ -6329,7 +6301,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>6</v>
       </c>
@@ -6353,7 +6325,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>6</v>
       </c>
@@ -6377,7 +6349,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>6</v>
       </c>
@@ -6401,7 +6373,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>6</v>
       </c>
@@ -6425,7 +6397,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>6</v>
       </c>
@@ -6449,7 +6421,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>6</v>
       </c>
@@ -6473,7 +6445,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -6497,7 +6469,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>6</v>
       </c>
@@ -6521,7 +6493,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>6</v>
       </c>
@@ -6545,7 +6517,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>6</v>
       </c>
@@ -6569,7 +6541,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>6</v>
       </c>
@@ -6593,7 +6565,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>6</v>
       </c>
@@ -6617,7 +6589,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>6</v>
       </c>
@@ -6641,7 +6613,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>6</v>
       </c>
@@ -6665,7 +6637,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>6</v>
       </c>
@@ -6689,7 +6661,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>6</v>
       </c>
@@ -6713,7 +6685,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>6</v>
       </c>
@@ -6737,7 +6709,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>5</v>
       </c>
@@ -6761,7 +6733,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>5</v>
       </c>
@@ -6785,7 +6757,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>5</v>
       </c>
@@ -6809,7 +6781,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>5</v>
       </c>
@@ -6833,7 +6805,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>5</v>
       </c>
@@ -6857,7 +6829,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>5</v>
       </c>
@@ -6881,7 +6853,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>5</v>
       </c>
@@ -6905,7 +6877,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>5</v>
       </c>
@@ -6929,7 +6901,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>134</v>
       </c>
@@ -6953,7 +6925,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>134</v>
       </c>
@@ -6977,7 +6949,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>134</v>
       </c>
@@ -7001,7 +6973,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>134</v>
       </c>
@@ -7025,7 +6997,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>134</v>
       </c>
@@ -7049,7 +7021,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>134</v>
       </c>
@@ -7073,7 +7045,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>134</v>
       </c>
@@ -7097,7 +7069,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>134</v>
       </c>
@@ -7121,7 +7093,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>134</v>
       </c>
@@ -7145,7 +7117,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>134</v>
       </c>
@@ -7169,7 +7141,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>134</v>
       </c>
@@ -7193,7 +7165,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>134</v>
       </c>
@@ -7217,7 +7189,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>134</v>
       </c>
@@ -7241,7 +7213,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>134</v>
       </c>
@@ -7265,7 +7237,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>134</v>
       </c>
@@ -7289,7 +7261,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>134</v>
       </c>
@@ -7313,7 +7285,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>134</v>
       </c>
@@ -7337,7 +7309,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>134</v>
       </c>
@@ -7361,7 +7333,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>134</v>
       </c>
@@ -7385,7 +7357,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>134</v>
       </c>
@@ -7409,7 +7381,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>134</v>
       </c>
@@ -7433,7 +7405,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>134</v>
       </c>
@@ -7457,7 +7429,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>134</v>
       </c>
@@ -7481,7 +7453,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>134</v>
       </c>
@@ -7505,7 +7477,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>134</v>
       </c>
@@ -7529,7 +7501,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>134</v>
       </c>
@@ -7553,7 +7525,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>134</v>
       </c>
@@ -7577,7 +7549,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>134</v>
       </c>
@@ -7615,75 +7587,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="A105" sqref="A4:A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="6" max="17" width="7.59765625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="6" max="16" width="7.625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-    </row>
-    <row r="2" spans="1:17" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+    </row>
+    <row r="2" spans="1:16" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="67" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>349</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="67" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="50"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -7733,8 +7703,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -7759,8 +7729,8 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -7785,8 +7755,8 @@
       </c>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -7811,8 +7781,8 @@
       </c>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -7837,8 +7807,8 @@
       </c>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -7869,8 +7839,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -7893,8 +7863,8 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -7917,8 +7887,8 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -7941,8 +7911,8 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -7965,8 +7935,8 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -7989,8 +7959,8 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -8013,8 +7983,8 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -8037,8 +8007,8 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -8061,8 +8031,8 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="62" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -8085,8 +8055,8 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -8109,8 +8079,8 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -8133,8 +8103,8 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -8157,8 +8127,8 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="62" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -8181,8 +8151,8 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -8205,8 +8175,8 @@
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="62" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -8229,8 +8199,8 @@
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -8253,8 +8223,8 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -8277,8 +8247,8 @@
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -8301,8 +8271,8 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -8325,8 +8295,8 @@
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -8349,8 +8319,8 @@
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="62" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -8373,8 +8343,8 @@
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -8397,8 +8367,8 @@
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -8421,8 +8391,8 @@
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="62" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -8445,8 +8415,8 @@
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A33" s="62" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -8469,8 +8439,8 @@
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="62" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -8493,8 +8463,8 @@
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -8517,8 +8487,8 @@
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A36" s="62" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -8541,8 +8511,8 @@
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A37" s="62" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -8565,8 +8535,8 @@
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="62" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -8589,8 +8559,8 @@
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="62" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -8613,8 +8583,8 @@
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -8637,8 +8607,8 @@
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="62" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -8661,8 +8631,8 @@
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="62" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -8685,8 +8655,8 @@
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="62" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -8709,8 +8679,8 @@
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="62" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -8733,8 +8703,8 @@
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="62" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -8757,8 +8727,8 @@
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="62" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -8781,8 +8751,8 @@
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="62" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -8805,8 +8775,8 @@
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A48" s="62" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -8829,8 +8799,8 @@
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A49" s="62" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -8853,8 +8823,8 @@
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" s="62" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -8877,8 +8847,8 @@
       <c r="O50" s="16"/>
       <c r="P50" s="16"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A51" s="62" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -8901,8 +8871,8 @@
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A52" s="62" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -8925,8 +8895,8 @@
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A53" s="62" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -8949,8 +8919,8 @@
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" s="62" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -8973,8 +8943,8 @@
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" s="62" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -8997,8 +8967,8 @@
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" s="62" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -9021,8 +8991,8 @@
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A57" s="62" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -9045,8 +9015,8 @@
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A58" s="62" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -9069,8 +9039,8 @@
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A59" s="62" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -9093,8 +9063,8 @@
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A60" s="62" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -9117,8 +9087,8 @@
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A61" s="62" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -9141,8 +9111,8 @@
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A62" s="62" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -9165,8 +9135,8 @@
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A63" s="62" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -9189,8 +9159,8 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A64" s="62" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -9213,8 +9183,8 @@
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A65" s="62" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -9237,8 +9207,8 @@
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A66" s="62" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -9261,8 +9231,8 @@
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A67" s="62" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -9285,8 +9255,8 @@
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A68" s="62" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -9309,8 +9279,8 @@
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A69" s="62" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -9333,8 +9303,8 @@
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A70" s="62" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -9357,8 +9327,8 @@
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A71" s="62" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -9381,8 +9351,8 @@
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A72" s="62" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -9405,8 +9375,8 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A73" s="62" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="58" t="s">
         <v>346</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -9429,8 +9399,8 @@
       <c r="O73" s="16"/>
       <c r="P73" s="16"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A74" s="62" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -9453,8 +9423,8 @@
       <c r="O74" s="16"/>
       <c r="P74" s="16"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A75" s="62" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -9477,8 +9447,8 @@
       <c r="O75" s="16"/>
       <c r="P75" s="16"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A76" s="62" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -9501,8 +9471,8 @@
       <c r="O76" s="16"/>
       <c r="P76" s="16"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A77" s="62" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -9525,8 +9495,8 @@
       <c r="O77" s="16"/>
       <c r="P77" s="16"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A78" s="62" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -9549,8 +9519,8 @@
       <c r="O78" s="16"/>
       <c r="P78" s="16"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A79" s="62" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -9573,8 +9543,8 @@
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A80" s="62" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -9597,8 +9567,8 @@
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A81" s="62" t="s">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -9621,8 +9591,8 @@
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A82" s="62" t="s">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -9645,8 +9615,8 @@
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A83" s="62" t="s">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -9669,8 +9639,8 @@
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A84" s="62" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -9693,8 +9663,8 @@
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A85" s="62" t="s">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -9717,8 +9687,8 @@
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A86" s="62" t="s">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -9741,8 +9711,8 @@
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A87" s="62" t="s">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -9765,8 +9735,8 @@
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A88" s="62" t="s">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -9789,8 +9759,8 @@
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A89" s="62" t="s">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -9813,8 +9783,8 @@
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A90" s="62" t="s">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -9837,8 +9807,8 @@
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A91" s="62" t="s">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -9861,8 +9831,8 @@
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A92" s="62" t="s">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -9885,8 +9855,8 @@
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A93" s="62" t="s">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -9909,8 +9879,8 @@
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A94" s="62" t="s">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -9933,8 +9903,8 @@
       <c r="O94" s="16"/>
       <c r="P94" s="16"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A95" s="62" t="s">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -9957,8 +9927,8 @@
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A96" s="62" t="s">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -9981,8 +9951,8 @@
       <c r="O96" s="16"/>
       <c r="P96" s="16"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A97" s="62" t="s">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -10005,8 +9975,8 @@
       <c r="O97" s="16"/>
       <c r="P97" s="16"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A98" s="62" t="s">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -10029,8 +9999,8 @@
       <c r="O98" s="16"/>
       <c r="P98" s="16"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A99" s="62" t="s">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -10053,8 +10023,8 @@
       <c r="O99" s="16"/>
       <c r="P99" s="16"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A100" s="62" t="s">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -10077,8 +10047,8 @@
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A101" s="62" t="s">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -10101,8 +10071,8 @@
       <c r="O101" s="16"/>
       <c r="P101" s="16"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A102" s="62" t="s">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -10125,8 +10095,8 @@
       <c r="O102" s="16"/>
       <c r="P102" s="16"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A103" s="62" t="s">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -10149,8 +10119,8 @@
       <c r="O103" s="16"/>
       <c r="P103" s="16"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A104" s="62" t="s">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -10173,8 +10143,8 @@
       <c r="O104" s="16"/>
       <c r="P104" s="16"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A105" s="62" t="s">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -10211,26 +10181,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" customWidth="1"/>
-    <col min="6" max="17" width="5.3984375" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="16" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>348</v>
       </c>
@@ -10249,36 +10219,34 @@
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="1:17" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="67" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="50"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -10328,7 +10296,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>124</v>
       </c>
@@ -10352,7 +10320,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
@@ -10376,7 +10344,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>2</v>
       </c>
@@ -10400,7 +10368,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>125</v>
       </c>
@@ -10424,7 +10392,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>6</v>
       </c>
@@ -10448,7 +10416,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>6</v>
       </c>
@@ -10472,7 +10440,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>6</v>
       </c>
@@ -10496,7 +10464,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>6</v>
       </c>
@@ -10520,7 +10488,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>6</v>
       </c>
@@ -10544,7 +10512,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>6</v>
       </c>
@@ -10568,7 +10536,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>6</v>
       </c>
@@ -10592,7 +10560,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>6</v>
       </c>
@@ -10616,7 +10584,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -10640,7 +10608,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>6</v>
       </c>
@@ -10664,7 +10632,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>6</v>
       </c>
@@ -10688,7 +10656,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>6</v>
       </c>
@@ -10712,7 +10680,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>6</v>
       </c>
@@ -10736,7 +10704,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>6</v>
       </c>
@@ -10760,7 +10728,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>6</v>
       </c>
@@ -10784,7 +10752,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>6</v>
       </c>
@@ -10808,7 +10776,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>37</v>
       </c>
@@ -10832,7 +10800,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>5</v>
       </c>
@@ -10856,7 +10824,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>5</v>
       </c>
@@ -10880,7 +10848,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>5</v>
       </c>
@@ -10904,7 +10872,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>5</v>
       </c>
@@ -10928,7 +10896,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>5</v>
       </c>
@@ -10952,7 +10920,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>5</v>
       </c>
@@ -10976,7 +10944,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>5</v>
       </c>
@@ -11000,7 +10968,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>5</v>
       </c>
@@ -11024,7 +10992,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>5</v>
       </c>
@@ -11048,8 +11016,8 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A34" s="60" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
         <v>427</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -11072,8 +11040,8 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A35" s="60" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -11096,8 +11064,8 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A36" s="60" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -11120,8 +11088,8 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A37" s="60" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -11144,8 +11112,8 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A38" s="60" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -11168,8 +11136,8 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A39" s="60" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -11192,8 +11160,8 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="60" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -11216,8 +11184,8 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="60" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -11240,8 +11208,8 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="60" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -11264,8 +11232,8 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -11288,8 +11256,8 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="60" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -11312,8 +11280,8 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A45" s="60" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -11336,8 +11304,8 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A46" s="60" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -11360,8 +11328,8 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A47" s="60" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -11384,8 +11352,8 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A48" s="60" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -11408,8 +11376,8 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A49" s="60" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -11432,8 +11400,8 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A50" s="60" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -11456,8 +11424,8 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A51" s="60" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -11480,8 +11448,8 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A52" s="60" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -11504,8 +11472,8 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A53" s="60" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -11528,8 +11496,8 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A54" s="60" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -11552,8 +11520,8 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A55" s="60" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -11576,8 +11544,8 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A56" s="60" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -11600,7 +11568,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -11610,7 +11578,7 @@
       <c r="N57" s="26"/>
       <c r="O57" s="26"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -11634,79 +11602,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="38" customWidth="1"/>
     <col min="4" max="4" width="9" style="38"/>
-    <col min="6" max="17" width="6.69921875" customWidth="1"/>
+    <col min="6" max="16" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-    </row>
-    <row r="2" spans="1:17" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+    </row>
+    <row r="2" spans="1:16" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="69" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="68" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="55"/>
-    </row>
-    <row r="3" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+    </row>
+    <row r="3" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="35" t="s">
@@ -11718,10 +11686,10 @@
       <c r="F3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>634</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>635</v>
       </c>
       <c r="I3" s="28" t="s">
@@ -11749,7 +11717,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>126</v>
       </c>
@@ -11766,7 +11734,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
@@ -11790,7 +11758,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>2</v>
       </c>
@@ -11814,7 +11782,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>2</v>
       </c>
@@ -11838,7 +11806,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>2</v>
       </c>
@@ -11862,7 +11830,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>2</v>
       </c>
@@ -11886,7 +11854,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>2</v>
       </c>
@@ -11910,7 +11878,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>2</v>
       </c>
@@ -11934,7 +11902,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>2</v>
       </c>
@@ -11958,7 +11926,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>127</v>
       </c>
@@ -11982,7 +11950,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>6</v>
       </c>
@@ -12006,7 +11974,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>6</v>
       </c>
@@ -12030,7 +11998,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>6</v>
       </c>
@@ -12054,7 +12022,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>6</v>
       </c>
@@ -12078,7 +12046,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>6</v>
       </c>
@@ -12102,7 +12070,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>6</v>
       </c>
@@ -12126,7 +12094,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>6</v>
       </c>
@@ -12150,7 +12118,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>6</v>
       </c>
@@ -12174,7 +12142,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>6</v>
       </c>
@@ -12198,7 +12166,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>6</v>
       </c>
@@ -12222,7 +12190,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>6</v>
       </c>
@@ -12246,7 +12214,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>6</v>
       </c>
@@ -12270,7 +12238,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>6</v>
       </c>
@@ -12294,7 +12262,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>6</v>
       </c>
@@ -12318,7 +12286,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>6</v>
       </c>
@@ -12342,7 +12310,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>6</v>
       </c>
@@ -12366,7 +12334,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
         <v>6</v>
       </c>
@@ -12390,7 +12358,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
         <v>6</v>
       </c>
@@ -12414,7 +12382,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
         <v>6</v>
       </c>
@@ -12438,7 +12406,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
         <v>6</v>
       </c>
@@ -12462,7 +12430,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>6</v>
       </c>
@@ -12486,7 +12454,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
         <v>6</v>
       </c>
@@ -12510,7 +12478,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
         <v>6</v>
       </c>
@@ -12534,7 +12502,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
         <v>6</v>
       </c>
@@ -12558,7 +12526,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
         <v>6</v>
       </c>
@@ -12582,7 +12550,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
         <v>6</v>
       </c>
@@ -12606,7 +12574,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
         <v>6</v>
       </c>
@@ -12630,7 +12598,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
         <v>6</v>
       </c>
@@ -12654,7 +12622,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
         <v>6</v>
       </c>
@@ -12678,7 +12646,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
         <v>6</v>
       </c>
@@ -12702,7 +12670,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
         <v>6</v>
       </c>
@@ -12726,7 +12694,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
         <v>128</v>
       </c>
@@ -12750,7 +12718,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
         <v>5</v>
       </c>
@@ -12774,7 +12742,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
         <v>5</v>
       </c>
@@ -12798,7 +12766,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
         <v>5</v>
       </c>
@@ -12822,7 +12790,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
         <v>5</v>
       </c>
@@ -12846,7 +12814,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
         <v>5</v>
       </c>
@@ -12870,7 +12838,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
         <v>5</v>
       </c>
@@ -12894,7 +12862,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="36" t="s">
         <v>5</v>
       </c>
@@ -12918,7 +12886,7 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
         <v>5</v>
       </c>
@@ -12942,7 +12910,7 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
         <v>550</v>
       </c>
@@ -12966,7 +12934,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
         <v>134</v>
       </c>
@@ -12990,7 +12958,7 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="36" t="s">
         <v>134</v>
       </c>
@@ -13014,7 +12982,7 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="36" t="s">
         <v>134</v>
       </c>
@@ -13038,7 +13006,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="36" t="s">
         <v>134</v>
       </c>
@@ -13062,7 +13030,7 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="36" t="s">
         <v>134</v>
       </c>
@@ -13086,7 +13054,7 @@
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="36" t="s">
         <v>134</v>
       </c>
@@ -13110,7 +13078,7 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="36" t="s">
         <v>134</v>
       </c>
@@ -13134,7 +13102,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="36" t="s">
         <v>134</v>
       </c>
@@ -13158,7 +13126,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="36" t="s">
         <v>134</v>
       </c>
@@ -13182,7 +13150,7 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="36" t="s">
         <v>134</v>
       </c>
@@ -13206,7 +13174,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="36" t="s">
         <v>134</v>
       </c>
@@ -13230,7 +13198,7 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="36" t="s">
         <v>134</v>
       </c>
@@ -13254,7 +13222,7 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="36" t="s">
         <v>134</v>
       </c>
@@ -13278,7 +13246,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="36" t="s">
         <v>134</v>
       </c>
@@ -13302,7 +13270,7 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
         <v>134</v>
       </c>
@@ -13326,7 +13294,7 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="36" t="s">
         <v>134</v>
       </c>
@@ -13350,7 +13318,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="36" t="s">
         <v>134</v>
       </c>
@@ -13374,7 +13342,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="36" t="s">
         <v>134</v>
       </c>
@@ -13398,7 +13366,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="36" t="s">
         <v>134</v>
       </c>
@@ -13422,7 +13390,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="36" t="s">
         <v>134</v>
       </c>
@@ -13446,7 +13414,7 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="36" t="s">
         <v>134</v>
       </c>
@@ -13470,7 +13438,7 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="36" t="s">
         <v>134</v>
       </c>
@@ -13494,7 +13462,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="36" t="s">
         <v>134</v>
       </c>
@@ -13518,7 +13486,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="36" t="s">
         <v>134</v>
       </c>
@@ -13542,7 +13510,7 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="36" t="s">
         <v>134</v>
       </c>
@@ -13566,7 +13534,7 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="36" t="s">
         <v>134</v>
       </c>
@@ -13590,7 +13558,7 @@
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="36" t="s">
         <v>134</v>
       </c>
@@ -13614,7 +13582,7 @@
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="36" t="s">
         <v>134</v>
       </c>
@@ -13638,7 +13606,7 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="36" t="s">
         <v>134</v>
       </c>
@@ -13662,7 +13630,7 @@
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="36" t="s">
         <v>134</v>
       </c>
@@ -13686,7 +13654,7 @@
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="36" t="s">
         <v>134</v>
       </c>
@@ -13710,7 +13678,7 @@
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="36" t="s">
         <v>134</v>
       </c>
@@ -13734,7 +13702,7 @@
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="36" t="s">
         <v>134</v>
       </c>
@@ -13772,79 +13740,71 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="12"/>
-    <col min="6" max="13" width="7.09765625" customWidth="1"/>
-    <col min="14" max="14" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7.09765625" customWidth="1"/>
+    <col min="6" max="12" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-    </row>
-    <row r="2" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>572</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="55"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="48" t="s">
@@ -13872,8 +13832,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>552</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -13884,9 +13844,16 @@
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="60" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="49" t="s">
@@ -13905,8 +13872,8 @@
       <c r="K5" s="49"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="49" t="s">
@@ -13925,7 +13892,7 @@
       <c r="K6" s="49"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>553</v>
       </c>
@@ -13945,7 +13912,7 @@
       <c r="K7" s="49"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -13965,7 +13932,7 @@
       <c r="K8" s="49"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -13985,7 +13952,7 @@
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -14005,7 +13972,7 @@
       <c r="K10" s="49"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -14025,7 +13992,7 @@
       <c r="K11" s="49"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -14045,7 +14012,7 @@
       <c r="K12" s="49"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -14065,7 +14032,7 @@
       <c r="K13" s="49"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -14085,7 +14052,7 @@
       <c r="K14" s="49"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -14097,15 +14064,15 @@
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
@@ -14117,15 +14084,15 @@
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
@@ -14137,15 +14104,15 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
@@ -14157,15 +14124,15 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
@@ -14176,16 +14143,16 @@
         <v>679</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
@@ -14196,16 +14163,16 @@
         <v>680</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -14217,15 +14184,15 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
@@ -14237,15 +14204,15 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>554</v>
       </c>
@@ -14257,15 +14224,15 @@
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
@@ -14277,15 +14244,15 @@
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>5</v>
       </c>
@@ -14297,15 +14264,15 @@
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
@@ -14317,15 +14284,15 @@
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="36"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
       <c r="L26" s="36"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
@@ -14337,15 +14304,15 @@
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="36"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
@@ -14357,15 +14324,15 @@
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
@@ -14377,15 +14344,15 @@
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -14397,15 +14364,15 @@
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="36"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>5</v>
       </c>
@@ -14417,15 +14384,15 @@
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
       <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>555</v>
       </c>
@@ -14438,14 +14405,14 @@
       <c r="D32" s="49"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>134</v>
       </c>
@@ -14458,14 +14425,14 @@
       <c r="D33" s="49"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
       <c r="L33" s="36"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>134</v>
       </c>
@@ -14478,14 +14445,14 @@
       <c r="D34" s="49"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>134</v>
       </c>
@@ -14498,14 +14465,14 @@
       <c r="D35" s="49"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
       <c r="L35" s="36"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>134</v>
       </c>
@@ -14518,14 +14485,14 @@
       <c r="D36" s="49"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>134</v>
       </c>
@@ -14538,14 +14505,14 @@
       <c r="D37" s="49"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>134</v>
       </c>
@@ -14558,14 +14525,14 @@
       <c r="D38" s="49"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>134</v>
       </c>
@@ -14578,14 +14545,14 @@
       <c r="D39" s="49"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
       <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>134</v>
       </c>
@@ -14598,14 +14565,14 @@
       <c r="D40" s="49"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
       <c r="L40" s="36"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>134</v>
       </c>
@@ -14618,14 +14585,14 @@
       <c r="D41" s="49"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="36"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>134</v>
       </c>
@@ -14638,14 +14605,14 @@
       <c r="D42" s="49"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
       <c r="L42" s="36"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>134</v>
       </c>
@@ -14658,14 +14625,14 @@
       <c r="D43" s="49"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="36"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>134</v>
       </c>
@@ -14678,14 +14645,14 @@
       <c r="D44" s="49"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
       <c r="L44" s="36"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>134</v>
       </c>
@@ -14718,25 +14685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
-    <col min="6" max="13" width="6.69921875" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="6" max="12" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>173</v>
       </c>
@@ -14751,30 +14717,28 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="67" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -14812,8 +14776,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>177</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -14833,6 +14797,9 @@
       <c r="H4" s="9" t="s">
         <v>264</v>
       </c>
+      <c r="I4" s="12" t="s">
+        <v>738</v>
+      </c>
       <c r="J4" s="14" t="s">
         <v>263</v>
       </c>
@@ -14843,8 +14810,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -14863,8 +14830,8 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>178</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -14883,8 +14850,8 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -14903,8 +14870,8 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
@@ -14921,8 +14888,8 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -14941,8 +14908,8 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -14961,8 +14928,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -14981,8 +14948,8 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="9"/>
@@ -14999,8 +14966,8 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="9"/>
@@ -15017,8 +14984,8 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -15037,8 +15004,8 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -15057,8 +15024,8 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -15077,8 +15044,8 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="62" t="s">
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -15097,8 +15064,8 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -15117,8 +15084,8 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -15137,8 +15104,8 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -15157,7 +15124,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>197</v>
       </c>
@@ -15177,7 +15144,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -15197,7 +15164,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -15217,7 +15184,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -15237,7 +15204,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -15257,7 +15224,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -15277,7 +15244,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -15297,7 +15264,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -15317,7 +15284,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>230</v>
       </c>
@@ -15337,7 +15304,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>134</v>
       </c>
@@ -15357,7 +15324,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>134</v>
       </c>
@@ -15377,7 +15344,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>134</v>
       </c>
@@ -15397,7 +15364,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>134</v>
       </c>
@@ -15417,7 +15384,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>134</v>
       </c>
@@ -15437,7 +15404,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>134</v>
       </c>
@@ -15457,7 +15424,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>134</v>
       </c>
@@ -15477,7 +15444,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -15497,7 +15464,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>134</v>
       </c>
@@ -15517,7 +15484,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>134</v>
       </c>
@@ -15537,7 +15504,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>134</v>
       </c>
@@ -15557,7 +15524,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>134</v>
       </c>
@@ -15577,7 +15544,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>134</v>
       </c>
@@ -15597,7 +15564,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>134</v>
       </c>
@@ -15617,7 +15584,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>134</v>
       </c>
@@ -15637,7 +15604,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>134</v>
       </c>
@@ -15657,7 +15624,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>134</v>
       </c>
@@ -15677,7 +15644,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>134</v>
       </c>
@@ -15697,7 +15664,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>134</v>
       </c>
@@ -15717,7 +15684,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>134</v>
       </c>
@@ -15737,7 +15704,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>134</v>
       </c>
@@ -15757,7 +15724,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>134</v>
       </c>
@@ -15777,7 +15744,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>134</v>
       </c>
@@ -15797,7 +15764,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>134</v>
       </c>
@@ -15817,7 +15784,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>134</v>
       </c>
@@ -15837,7 +15804,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>134</v>
       </c>
@@ -15857,7 +15824,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>134</v>
       </c>
@@ -15877,7 +15844,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>134</v>
       </c>
@@ -15897,7 +15864,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>134</v>
       </c>
@@ -15917,7 +15884,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>134</v>
       </c>
@@ -15937,7 +15904,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>134</v>
       </c>
@@ -15957,7 +15924,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>134</v>
       </c>
@@ -15977,7 +15944,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>134</v>
       </c>
@@ -15997,7 +15964,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>134</v>
       </c>
@@ -16017,8 +15984,8 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="65" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
@@ -16032,24 +15999,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="6.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>173</v>
       </c>
@@ -16064,30 +16031,28 @@
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>593</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="67" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="58"/>
-    </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
@@ -16125,7 +16090,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>552</v>
       </c>
@@ -16145,7 +16110,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -16165,7 +16130,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -16185,7 +16150,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
@@ -16205,7 +16170,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -16225,7 +16190,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>553</v>
       </c>
@@ -16245,7 +16210,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -16265,7 +16230,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -16285,7 +16250,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>554</v>
       </c>
@@ -16305,7 +16270,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
@@ -16325,7 +16290,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -16345,7 +16310,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
@@ -16365,7 +16330,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
@@ -16385,7 +16350,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
@@ -16405,7 +16370,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
@@ -16425,7 +16390,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
@@ -16445,7 +16410,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>555</v>
       </c>
@@ -16465,7 +16430,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>134</v>
       </c>
@@ -16485,7 +16450,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>134</v>
       </c>
@@ -16505,7 +16470,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>134</v>
       </c>
@@ -16525,7 +16490,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>134</v>
       </c>
@@ -16545,7 +16510,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>134</v>
       </c>
@@ -16565,7 +16530,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>134</v>
       </c>
@@ -16585,7 +16550,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>134</v>
       </c>
@@ -16605,7 +16570,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>134</v>
       </c>
@@ -16625,7 +16590,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>134</v>
       </c>
@@ -16645,7 +16610,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>134</v>
       </c>
@@ -16665,7 +16630,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>134</v>
       </c>
@@ -16685,7 +16650,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>134</v>
       </c>
@@ -16705,7 +16670,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>134</v>
       </c>
@@ -16725,7 +16690,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>134</v>
       </c>
@@ -16745,7 +16710,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>134</v>
       </c>
@@ -16765,7 +16730,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>134</v>
       </c>
@@ -16785,7 +16750,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>134</v>
       </c>
@@ -16805,7 +16770,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>134</v>
       </c>
@@ -16825,7 +16790,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>134</v>
       </c>
@@ -16845,7 +16810,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>134</v>
       </c>
@@ -16865,7 +16830,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>134</v>
       </c>
@@ -16885,7 +16850,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>134</v>
       </c>
@@ -16905,7 +16870,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>134</v>
       </c>
@@ -16925,7 +16890,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>134</v>
       </c>
@@ -16945,158 +16910,141 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L45" s="59"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="31"/>
       <c r="K46" s="31"/>
       <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
       <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="31"/>
       <c r="K48" s="31"/>
       <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-    </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="31"/>
       <c r="K49" s="31"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-    </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="L49" s="60"/>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
       <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-    </row>
-    <row r="51" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="31"/>
       <c r="K51" s="31"/>
       <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-    </row>
-    <row r="52" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="31"/>
       <c r="K52" s="31"/>
       <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-    </row>
-    <row r="53" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
       <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-    </row>
-    <row r="54" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="31"/>
       <c r="K54" s="31"/>
       <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-    </row>
-    <row r="55" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-    </row>
-    <row r="56" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-    </row>
-    <row r="57" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-    </row>
-    <row r="58" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-    </row>
-    <row r="59" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-    </row>
-    <row r="60" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-    </row>
-    <row r="61" spans="7:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17111,29 +17059,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" style="12" customWidth="1"/>
-    <col min="6" max="13" width="4.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.8984375" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="12" customWidth="1"/>
+    <col min="6" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>173</v>
       </c>
@@ -17148,37 +17096,35 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="67" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -17209,8 +17155,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>177</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -17231,8 +17177,8 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -17255,8 +17201,8 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -17279,8 +17225,8 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -17301,8 +17247,8 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -17325,8 +17271,8 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -17347,8 +17293,8 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -17367,8 +17313,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -17387,8 +17333,8 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -17407,8 +17353,8 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -17427,8 +17373,8 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -17447,8 +17393,8 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -17467,8 +17413,8 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -17487,8 +17433,8 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="62" t="s">
+    <row r="17" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -17507,8 +17453,8 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -17527,8 +17473,8 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -17547,8 +17493,8 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -17569,8 +17515,8 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="62" t="s">
+    <row r="21" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -17589,8 +17535,8 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -17609,8 +17555,8 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="62" t="s">
+    <row r="23" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -17629,8 +17575,8 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -17649,8 +17595,8 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -17669,8 +17615,8 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -17689,8 +17635,8 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -17709,8 +17655,8 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -17729,8 +17675,8 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="62" t="s">
+    <row r="29" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -17749,8 +17695,8 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="58" t="s">
         <v>197</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -17769,8 +17715,8 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="62" t="s">
+    <row r="31" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -17789,8 +17735,8 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="62" t="s">
+    <row r="32" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -17809,8 +17755,8 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="62" t="s">
+    <row r="33" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -17829,8 +17775,8 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="62" t="s">
+    <row r="34" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -17849,8 +17795,8 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -17869,8 +17815,8 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="62" t="s">
+    <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -17889,8 +17835,8 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="62" t="s">
+    <row r="37" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -17909,8 +17855,8 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="62" t="s">
+    <row r="38" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -17929,8 +17875,8 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="62" t="s">
+    <row r="39" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -17949,8 +17895,8 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
         <v>230</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -17969,8 +17915,8 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="62" t="s">
+    <row r="41" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -17989,8 +17935,8 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="62" t="s">
+    <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -18009,8 +17955,8 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="62" t="s">
+    <row r="43" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -18029,8 +17975,8 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="62" t="s">
+    <row r="44" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -18049,8 +17995,8 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="62" t="s">
+    <row r="45" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -18069,8 +18015,8 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="62" t="s">
+    <row r="46" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -18089,8 +18035,8 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="62" t="s">
+    <row r="47" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -18109,8 +18055,8 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="62" t="s">
+    <row r="48" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -18129,8 +18075,8 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="62" t="s">
+    <row r="49" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -18149,8 +18095,8 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="62" t="s">
+    <row r="50" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -18169,8 +18115,8 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="62" t="s">
+    <row r="51" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -18189,8 +18135,8 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="62" t="s">
+    <row r="52" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -18209,8 +18155,8 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="62" t="s">
+    <row r="53" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -18229,8 +18175,8 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="62" t="s">
+    <row r="54" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -18249,8 +18195,8 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="62" t="s">
+    <row r="55" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -18269,8 +18215,8 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="62" t="s">
+    <row r="56" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -18289,8 +18235,8 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="62" t="s">
+    <row r="57" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -18309,8 +18255,8 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="62" t="s">
+    <row r="58" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -18329,8 +18275,8 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="62" t="s">
+    <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -18349,8 +18295,8 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="62" t="s">
+    <row r="60" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -18369,8 +18315,8 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="62" t="s">
+    <row r="61" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -18389,8 +18335,8 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="62" t="s">
+    <row r="62" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -18409,8 +18355,8 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="62" t="s">
+    <row r="63" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -18429,8 +18375,8 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="62" t="s">
+    <row r="64" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -18449,8 +18395,8 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="62" t="s">
+    <row r="65" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -18469,8 +18415,8 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="62" t="s">
+    <row r="66" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -18489,8 +18435,8 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="62" t="s">
+    <row r="67" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -18509,8 +18455,8 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="62" t="s">
+    <row r="68" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -18529,8 +18475,8 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="62" t="s">
+    <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -18549,8 +18495,8 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="62" t="s">
+    <row r="70" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -18569,8 +18515,8 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="62" t="s">
+    <row r="71" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="58" t="s">
         <v>134</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -18589,7 +18535,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -18602,9 +18548,8 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -18617,9 +18562,8 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -18632,9 +18576,8 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -18647,9 +18590,8 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -18662,9 +18604,8 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -18677,9 +18618,8 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -18692,9 +18632,8 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -18707,9 +18646,8 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -18722,9 +18660,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -18737,9 +18674,8 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -18752,9 +18688,8 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -18767,9 +18702,8 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -18782,9 +18716,8 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -18797,9 +18730,8 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -18812,9 +18744,8 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -18827,9 +18758,8 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -18842,9 +18772,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -18857,9 +18786,8 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -18872,9 +18800,8 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -18887,9 +18814,8 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -18902,9 +18828,8 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -18917,9 +18842,8 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -18932,9 +18856,8 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -18947,9 +18870,8 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -18962,9 +18884,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -18977,9 +18898,8 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -18992,9 +18912,8 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -19007,9 +18926,8 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -19022,9 +18940,8 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -19037,9 +18954,8 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -19052,9 +18968,8 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -19067,9 +18982,8 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -19082,9 +18996,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -19097,9 +19010,8 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -19112,9 +19024,8 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -19127,9 +19038,8 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -19142,9 +19052,8 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -19157,9 +19066,8 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -19172,9 +19080,8 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -19187,9 +19094,8 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -19202,9 +19108,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -19217,9 +19122,8 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -19232,9 +19136,8 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -19247,9 +19150,8 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -19262,9 +19164,8 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -19277,9 +19178,8 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -19292,9 +19192,8 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -19307,9 +19206,8 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -19322,9 +19220,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -19337,9 +19234,8 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -19352,9 +19248,8 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -19367,9 +19262,8 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -19382,9 +19276,8 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -19397,9 +19290,8 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -19412,9 +19304,8 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -19427,9 +19318,8 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -19442,9 +19332,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -19457,9 +19346,8 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -19472,9 +19360,8 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -19487,9 +19374,8 @@
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -19502,9 +19388,8 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -19517,9 +19402,8 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -19532,9 +19416,8 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -19547,9 +19430,8 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
-      <c r="M135" s="3"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -19562,9 +19444,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-      <c r="M136" s="3"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -19577,9 +19458,8 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
-      <c r="M137" s="3"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -19592,9 +19472,8 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -19607,9 +19486,8 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -19622,9 +19500,8 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="M140" s="3"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -19637,9 +19514,8 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-      <c r="M141" s="3"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -19652,9 +19528,8 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
-      <c r="M142" s="3"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -19667,9 +19542,8 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -19682,9 +19556,8 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -19697,7 +19570,6 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19712,29 +19584,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="4" width="15" style="10" customWidth="1"/>
     <col min="5" max="5" width="9" style="12"/>
-    <col min="6" max="13" width="7.19921875" customWidth="1"/>
-    <col min="14" max="14" width="15.09765625" customWidth="1"/>
+    <col min="6" max="12" width="7.25" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>348</v>
       </c>
@@ -19749,30 +19621,28 @@
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="70" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="67" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -19782,7 +19652,7 @@
       <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -19810,8 +19680,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>405</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -19830,8 +19700,8 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -19850,8 +19720,8 @@
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -19870,8 +19740,8 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -19890,8 +19760,8 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -19910,8 +19780,8 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -19930,8 +19800,8 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
         <v>407</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -19950,8 +19820,8 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="60" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -19970,8 +19840,8 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -19990,8 +19860,8 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -20010,8 +19880,8 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="60" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -20030,8 +19900,8 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -20050,8 +19920,8 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -20070,8 +19940,8 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -20090,8 +19960,8 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -20110,8 +19980,8 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="60" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -20130,8 +20000,8 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -20150,8 +20020,8 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="60" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -20170,8 +20040,8 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -20190,8 +20060,8 @@
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="60" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -20210,8 +20080,8 @@
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>406</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -20230,8 +20100,8 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -20250,8 +20120,8 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="60" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -20270,8 +20140,8 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="60" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -20290,8 +20160,8 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="60" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -20310,8 +20180,8 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -20330,8 +20200,8 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="60" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -20350,8 +20220,8 @@
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="60" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -20370,8 +20240,8 @@
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -20390,8 +20260,8 @@
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="60" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -20410,8 +20280,8 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="60" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="56" t="s">
         <v>403</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -20430,8 +20300,8 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="60" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -20450,8 +20320,8 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="60" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -20470,8 +20340,8 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="60" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -20490,8 +20360,8 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="60" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -20510,8 +20380,8 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="60" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -20530,8 +20400,8 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="60" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -20550,8 +20420,8 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="60" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -20570,8 +20440,8 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="60" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -20590,8 +20460,8 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -20610,8 +20480,8 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="60" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -20630,8 +20500,8 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="60" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -20650,8 +20520,8 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="60" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -20670,8 +20540,8 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="60" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -20690,8 +20560,8 @@
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="60" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -20710,8 +20580,8 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="60" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -20730,8 +20600,8 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="60" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -20750,8 +20620,8 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="60" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -20770,8 +20640,8 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="60" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -20790,8 +20660,8 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="60" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -20810,8 +20680,8 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="60" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -20830,8 +20700,8 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="60" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -20850,8 +20720,8 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="60" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -20870,8 +20740,8 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="60" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -20890,8 +20760,8 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="60" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -20910,8 +20780,8 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="60" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -20930,8 +20800,8 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="60" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -20950,8 +20820,8 @@
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="60" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -20970,8 +20840,8 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="60" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -20990,8 +20860,8 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="60" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -21010,8 +20880,8 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="60" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -21030,8 +20900,8 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="60" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -21050,8 +20920,8 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="60" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -21070,8 +20940,8 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="60" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -21090,8 +20960,8 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="60" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -21110,8 +20980,8 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="60" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -21130,8 +21000,8 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="60" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="56" t="s">
         <v>134</v>
       </c>
       <c r="B70" s="7" t="s">
